--- a/Code/R/Magnan/PerfSearch_RF_SvmRFE2_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_SvmRFE2_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="1531">
   <si>
     <t>MCC</t>
   </si>
@@ -4636,6 +4636,12 @@
   </si>
   <si>
     <t>TopRank</t>
+  </si>
+  <si>
+    <t>&lt;-- DEFAULT THREHOLD</t>
+  </si>
+  <si>
+    <t>&lt;-- DEFAULT THRESHOLD</t>
   </si>
 </sst>
 </file>
@@ -5591,11 +5597,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="64676224"/>
-        <c:axId val="79443840"/>
+        <c:axId val="60108800"/>
+        <c:axId val="60118528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64676224"/>
+        <c:axId val="60108800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -5606,12 +5612,12 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79443840"/>
+        <c:crossAx val="60118528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79443840"/>
+        <c:axId val="60118528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000064"/>
@@ -5622,7 +5628,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64676224"/>
+        <c:crossAx val="60108800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5634,7 +5640,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7236,23 +7242,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="83219584"/>
-        <c:axId val="83221120"/>
+        <c:axId val="63662336"/>
+        <c:axId val="89461120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83219584"/>
+        <c:axId val="63662336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83221120"/>
+        <c:crossAx val="89461120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83221120"/>
+        <c:axId val="89461120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7260,7 +7266,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83219584"/>
+        <c:crossAx val="63662336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7272,7 +7278,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9306,23 +9312,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="83292928"/>
-        <c:axId val="83294464"/>
+        <c:axId val="105549824"/>
+        <c:axId val="105553280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83292928"/>
+        <c:axId val="105549824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83294464"/>
+        <c:crossAx val="105553280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83294464"/>
+        <c:axId val="105553280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9330,19 +9336,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83292928"/>
+        <c:crossAx val="105549824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9996,23 +10003,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="83466112"/>
-        <c:axId val="83467648"/>
+        <c:axId val="60547840"/>
+        <c:axId val="60549376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83466112"/>
+        <c:axId val="60547840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83467648"/>
+        <c:crossAx val="60549376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83467648"/>
+        <c:axId val="60549376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10020,7 +10027,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83466112"/>
+        <c:crossAx val="60547840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10033,7 +10040,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10445,11 +10452,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="83484032"/>
-        <c:axId val="85927040"/>
+        <c:axId val="60602624"/>
+        <c:axId val="60612608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83484032"/>
+        <c:axId val="60602624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="650"/>
@@ -10458,12 +10465,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85927040"/>
+        <c:crossAx val="60612608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85927040"/>
+        <c:axId val="60612608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000064"/>
@@ -10474,7 +10481,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83484032"/>
+        <c:crossAx val="60602624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10486,7 +10493,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12069,23 +12076,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="95892608"/>
-        <c:axId val="95894144"/>
+        <c:axId val="60928000"/>
+        <c:axId val="60929536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95892608"/>
+        <c:axId val="60928000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95894144"/>
+        <c:crossAx val="60929536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95894144"/>
+        <c:axId val="60929536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12093,19 +12100,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95892608"/>
+        <c:crossAx val="60928000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12115,9 +12123,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -12759,23 +12765,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="95959680"/>
-        <c:axId val="95961472"/>
+        <c:axId val="61134336"/>
+        <c:axId val="61135872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95959680"/>
+        <c:axId val="61134336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95961472"/>
+        <c:crossAx val="61135872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95961472"/>
+        <c:axId val="61135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12783,20 +12789,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95959680"/>
+        <c:crossAx val="61134336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13603,10 +13608,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14344,7 +14349,7 @@
         <v>5.5837563451776699E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14367,7 +14372,7 @@
         <v>5.5986218776916501E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14390,7 +14395,7 @@
         <v>5.69395017793594E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14413,7 +14418,7 @@
         <v>5.85544373284538E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -14436,7 +14441,7 @@
         <v>5.8380414312617701E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -14459,7 +14464,7 @@
         <v>6.0098522167487699E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -14482,7 +14487,7 @@
         <v>6.1928934010152301E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14505,7 +14510,7 @@
         <v>6.4210526315789496E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -14528,7 +14533,7 @@
         <v>6.4977973568281902E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
@@ -14551,30 +14556,33 @@
         <v>6.5743944636678195E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
+    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>0.5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0.46274777853725202</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>0.76712328767123295</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>0.44676258992805801</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>9.3910386206636498E-2</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>6.78787878787879E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="2" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
@@ -14597,7 +14605,7 @@
         <v>6.8877551020408198E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -14620,7 +14628,7 @@
         <v>6.5595716198125806E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -14643,7 +14651,7 @@
         <v>6.7723342939481304E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -14666,7 +14674,7 @@
         <v>6.7692307692307704E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -14689,7 +14697,7 @@
         <v>7.2758037225042302E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
@@ -38542,11 +38550,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G3:G4"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39284,7 +39292,7 @@
         <v>5.7526366251198502E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -39307,7 +39315,7 @@
         <v>5.8882235528942103E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -39330,7 +39338,7 @@
         <v>6.1909758656873003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -39353,7 +39361,7 @@
         <v>6.3806380638063806E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -39376,7 +39384,7 @@
         <v>6.6897347174163804E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -39399,7 +39407,7 @@
         <v>6.9174757281553395E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -39422,7 +39430,7 @@
         <v>7.1052631578947395E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -39445,7 +39453,7 @@
         <v>7.52089136490251E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -39468,7 +39476,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
@@ -39491,30 +39499,33 @@
         <v>7.7901430842607297E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
+    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>0.5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0.61175666438824305</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>0.61643835616438403</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>0.611510791366906</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>0.101316834306471</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>7.69230769230769E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="2" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
@@ -39537,7 +39548,7 @@
         <v>8.1330868761552697E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -39560,7 +39571,7 @@
         <v>8.0082135523613998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -39583,7 +39594,7 @@
         <v>8.5972850678733004E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -39606,7 +39617,7 @@
         <v>8.9775561097256901E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -39629,7 +39640,7 @@
         <v>9.8039215686274495E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
@@ -40444,7 +40455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
@@ -41269,7 +41280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1464"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C1464"/>
     </sheetView>
   </sheetViews>
@@ -60964,7 +60975,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
